--- a/ScrumDocs/Sprint1Planning.xlsx
+++ b/ScrumDocs/Sprint1Planning.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luesm\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fran\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" tabRatio="993" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="7530" tabRatio="993"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="45">
   <si>
     <t>SPRINT 1 PLANNING</t>
   </si>
@@ -153,12 +153,18 @@
   </si>
   <si>
     <t>Alejandro</t>
+  </si>
+  <si>
+    <t>Francisco</t>
+  </si>
+  <si>
+    <t>20?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -204,11 +210,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -522,11 +529,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -797,7 +804,13 @@
       <c r="C28" s="2">
         <v>1</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="D28" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" s="4" t="s">
         <v>36</v>
       </c>
     </row>
@@ -831,7 +844,7 @@
       <c r="C30" s="2">
         <v>1</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="F30" s="4" t="s">
         <v>40</v>
       </c>
     </row>
@@ -852,7 +865,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>

--- a/ScrumDocs/Sprint1Planning.xlsx
+++ b/ScrumDocs/Sprint1Planning.xlsx
@@ -1,21 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fran\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="25725"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="7530" tabRatio="993"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16820" windowHeight="7540" tabRatio="993"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
     </ext>
@@ -24,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="47">
   <si>
     <t>SPRINT 1 PLANNING</t>
   </si>
@@ -159,12 +157,18 @@
   </si>
   <si>
     <t>20?</t>
+  </si>
+  <si>
+    <t>Aina</t>
+  </si>
+  <si>
+    <t>15?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -276,7 +280,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -328,7 +332,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -522,7 +526,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -532,33 +536,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="66" zoomScaleNormal="66" zoomScalePageLayoutView="66" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="62.28515625" style="2"/>
-    <col min="2" max="2" width="36" style="2"/>
-    <col min="3" max="3" width="20.28515625" style="2"/>
-    <col min="4" max="4" width="17.28515625" style="2"/>
-    <col min="5" max="5" width="17.5703125" style="2"/>
-    <col min="6" max="6" width="123.7109375" style="2"/>
-    <col min="7" max="1025" width="11.5703125" style="2"/>
-    <col min="1026" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="16384" width="9.1640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" s="3" customFormat="1">
       <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
@@ -578,7 +575,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
@@ -598,7 +595,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
@@ -618,7 +615,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6">
       <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
@@ -635,7 +632,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6">
       <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
@@ -655,7 +652,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6">
       <c r="A11" s="2" t="s">
         <v>19</v>
       </c>
@@ -672,7 +669,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6">
       <c r="A12" s="2" t="s">
         <v>21</v>
       </c>
@@ -689,12 +686,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6">
       <c r="A14" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6">
       <c r="A15" s="2" t="s">
         <v>24</v>
       </c>
@@ -708,7 +705,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6">
       <c r="A16" s="2" t="s">
         <v>26</v>
       </c>
@@ -722,7 +719,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6">
       <c r="A17" s="2" t="s">
         <v>28</v>
       </c>
@@ -733,7 +730,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6">
       <c r="A18" s="2" t="s">
         <v>29</v>
       </c>
@@ -747,7 +744,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6">
       <c r="A19" s="2" t="s">
         <v>31</v>
       </c>
@@ -755,12 +752,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" s="3" customFormat="1">
       <c r="A26" s="3" t="s">
         <v>2</v>
       </c>
@@ -780,7 +777,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6">
       <c r="A27" s="2" t="s">
         <v>33</v>
       </c>
@@ -790,11 +787,17 @@
       <c r="C27" s="2">
         <v>1</v>
       </c>
+      <c r="D27" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="F27" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6">
       <c r="A28" s="2" t="s">
         <v>35</v>
       </c>
@@ -814,7 +817,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6">
       <c r="A29" s="2" t="s">
         <v>37</v>
       </c>
@@ -834,7 +837,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6">
       <c r="A30" s="2" t="s">
         <v>39</v>
       </c>
@@ -848,27 +851,32 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6">
       <c r="A31" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:1">
       <c r="A33" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:1">
       <c r="A34" s="2" t="s">
         <v>41</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/ScrumDocs/Sprint1Planning.xlsx
+++ b/ScrumDocs/Sprint1Planning.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="25725"/>
-  <workbookPr autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17726"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marc Valdivia\Documents\ES2017A3\ScrumDocs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16820" windowHeight="7540" tabRatio="993"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16824" windowHeight="7536" tabRatio="993"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="48">
   <si>
     <t>SPRINT 1 PLANNING</t>
   </si>
@@ -163,12 +168,15 @@
   </si>
   <si>
     <t>15?</t>
+  </si>
+  <si>
+    <t>Marc</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -526,7 +534,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -536,26 +544,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="66" zoomScaleNormal="66" zoomScalePageLayoutView="66" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="66" zoomScaleNormal="66" zoomScalePageLayoutView="66" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.1640625" style="2"/>
+    <col min="1" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="3" customFormat="1">
+    <row r="6" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
@@ -575,7 +583,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
@@ -595,7 +603,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
@@ -615,7 +623,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
@@ -632,7 +640,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
@@ -652,7 +660,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>19</v>
       </c>
@@ -669,7 +677,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>21</v>
       </c>
@@ -686,12 +694,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>24</v>
       </c>
@@ -705,7 +713,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>26</v>
       </c>
@@ -719,7 +727,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>28</v>
       </c>
@@ -730,7 +738,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>29</v>
       </c>
@@ -744,7 +752,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>31</v>
       </c>
@@ -752,12 +760,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="3" customFormat="1">
+    <row r="26" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>2</v>
       </c>
@@ -777,7 +785,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>33</v>
       </c>
@@ -797,7 +805,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>35</v>
       </c>
@@ -817,7 +825,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>37</v>
       </c>
@@ -837,7 +845,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>39</v>
       </c>
@@ -847,21 +855,27 @@
       <c r="C30" s="2">
         <v>1</v>
       </c>
+      <c r="D30" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="F30" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>41</v>
       </c>

--- a/ScrumDocs/Sprint1Planning.xlsx
+++ b/ScrumDocs/Sprint1Planning.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marc Valdivia\Documents\ES2017A3\ScrumDocs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleix\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16824" windowHeight="7536" tabRatio="993"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" tabRatio="993"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="51">
   <si>
     <t>SPRINT 1 PLANNING</t>
   </si>
@@ -171,6 +171,15 @@
   </si>
   <si>
     <t>Marc</t>
+  </si>
+  <si>
+    <t>Codificadió básica de l'objecte Jugador</t>
+  </si>
+  <si>
+    <t>Aleix</t>
+  </si>
+  <si>
+    <t>Entitat que guarda la puntuació, diners, llista de totems i proveeix metodes per actualitzar i recuperar aquests atributs.</t>
   </si>
 </sst>
 </file>
@@ -288,7 +297,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -340,7 +349,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -545,25 +554,25 @@
   <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" zoomScale="66" zoomScaleNormal="66" zoomScalePageLayoutView="66" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="9.109375" style="2"/>
+    <col min="1" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
@@ -583,7 +592,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
@@ -603,7 +612,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
@@ -623,7 +632,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
@@ -640,7 +649,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
@@ -660,7 +669,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>19</v>
       </c>
@@ -677,7 +686,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>21</v>
       </c>
@@ -694,12 +703,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>24</v>
       </c>
@@ -713,7 +722,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>26</v>
       </c>
@@ -727,7 +736,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>28</v>
       </c>
@@ -738,7 +747,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>29</v>
       </c>
@@ -752,7 +761,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>31</v>
       </c>
@@ -760,12 +769,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>2</v>
       </c>
@@ -785,7 +794,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>33</v>
       </c>
@@ -805,7 +814,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>35</v>
       </c>
@@ -825,7 +834,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>37</v>
       </c>
@@ -845,7 +854,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>39</v>
       </c>
@@ -865,17 +874,32 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="4">
+        <v>1</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E31" s="2">
+        <v>16</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>41</v>
       </c>
